--- a/data/pca/factorExposure/factorExposure_2019-04-22.xlsx
+++ b/data/pca/factorExposure/factorExposure_2019-04-22.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,15 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +707,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:J104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +732,115 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>0.1298886313092327</v>
+        <v>-0.07687870810436423</v>
       </c>
       <c r="C2">
-        <v>0.0180522752436565</v>
+        <v>-0.03556131954390616</v>
       </c>
       <c r="D2">
-        <v>0.05037240730288683</v>
+        <v>-0.004863925280799196</v>
       </c>
       <c r="E2">
-        <v>0.1103378028961554</v>
+        <v>-0.04144299010256097</v>
       </c>
       <c r="F2">
-        <v>-0.09972013083779993</v>
+        <v>0.1402522848336337</v>
       </c>
       <c r="G2">
-        <v>0.00378959403887929</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.1103799435923178</v>
+      </c>
+      <c r="H2">
+        <v>-0.05325653988872998</v>
+      </c>
+      <c r="I2">
+        <v>-0.009831497476674018</v>
+      </c>
+      <c r="J2">
+        <v>-0.07889340425431146</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B3">
-        <v>0.2266231428903734</v>
+        <v>-0.1673711812710152</v>
       </c>
       <c r="C3">
-        <v>-0.09185827877126719</v>
+        <v>-0.07585342406724939</v>
       </c>
       <c r="D3">
-        <v>-0.01945202031551578</v>
+        <v>0.05601894927874029</v>
       </c>
       <c r="E3">
-        <v>0.3150000992662086</v>
+        <v>0.01563465124263316</v>
       </c>
       <c r="F3">
-        <v>0.003389468349954699</v>
+        <v>0.3604698879732424</v>
       </c>
       <c r="G3">
-        <v>-0.1271435849601729</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>0.07823084768815851</v>
+      </c>
+      <c r="H3">
+        <v>-0.2725889053598359</v>
+      </c>
+      <c r="I3">
+        <v>-0.1323584022056424</v>
+      </c>
+      <c r="J3">
+        <v>-0.3087272604755309</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>0.1006643608514614</v>
+        <v>-0.07538055466399607</v>
       </c>
       <c r="C4">
-        <v>-0.02545111410089181</v>
+        <v>-0.02627112587572112</v>
       </c>
       <c r="D4">
-        <v>0.02795656221973727</v>
+        <v>0.03483932818002525</v>
       </c>
       <c r="E4">
-        <v>0.07935800604557433</v>
+        <v>-0.03387465129283102</v>
       </c>
       <c r="F4">
-        <v>-0.03607081355166289</v>
+        <v>0.08268963196846203</v>
       </c>
       <c r="G4">
-        <v>-0.01968906869378188</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.04319629552947603</v>
+      </c>
+      <c r="H4">
+        <v>-0.02435859569354657</v>
+      </c>
+      <c r="I4">
+        <v>-0.01833972612946241</v>
+      </c>
+      <c r="J4">
+        <v>-0.06856203046810767</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +860,307 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>-0.01822630784198781</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>-0.001775914684950902</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.007996281084063328</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>-0.002654404141529331</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>0.002791024556026186</v>
       </c>
       <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>-0.01861630504473848</v>
+      </c>
+      <c r="H6">
+        <v>-0.003847630606962181</v>
+      </c>
+      <c r="I6">
+        <v>0.009950144398874386</v>
+      </c>
+      <c r="J6">
+        <v>-0.001465418570624728</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>0.04231272951380849</v>
+        <v>-0.0353137037733413</v>
       </c>
       <c r="C7">
-        <v>-0.00313364103584673</v>
+        <v>0.005694363433756994</v>
       </c>
       <c r="D7">
-        <v>0.0343703000567003</v>
+        <v>0.03979604449052752</v>
       </c>
       <c r="E7">
-        <v>0.07148414234326131</v>
+        <v>-0.0276321070955984</v>
       </c>
       <c r="F7">
-        <v>0.05185940743182534</v>
+        <v>0.05682319279141701</v>
       </c>
       <c r="G7">
-        <v>0.009927354170084338</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-0.005548019882392756</v>
+      </c>
+      <c r="H7">
+        <v>-0.0466467144772553</v>
+      </c>
+      <c r="I7">
+        <v>0.0199037097020424</v>
+      </c>
+      <c r="J7">
+        <v>-0.0479036748988154</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>0.04229050836908396</v>
+        <v>-0.03131023630303434</v>
       </c>
       <c r="C8">
-        <v>-0.03898592409995127</v>
+        <v>-0.02927342921601762</v>
       </c>
       <c r="D8">
-        <v>0.008895576474705659</v>
+        <v>0.0355283053325692</v>
       </c>
       <c r="E8">
-        <v>0.07364285262836819</v>
+        <v>-0.01357276773883702</v>
       </c>
       <c r="F8">
-        <v>-0.005117162927831468</v>
+        <v>0.07585798143946071</v>
       </c>
       <c r="G8">
-        <v>-0.0158118978877419</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.02041844644749373</v>
+      </c>
+      <c r="H8">
+        <v>-0.04797739587176912</v>
+      </c>
+      <c r="I8">
+        <v>-0.01580759041431956</v>
+      </c>
+      <c r="J8">
+        <v>-0.07059204797720142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B9">
-        <v>0.08719229022942378</v>
+        <v>-0.06228167515303876</v>
       </c>
       <c r="C9">
-        <v>-0.02736160233859376</v>
+        <v>-0.02361478317309535</v>
       </c>
       <c r="D9">
-        <v>0.03638296430595927</v>
+        <v>0.03905999850557385</v>
       </c>
       <c r="E9">
-        <v>0.06733758680024919</v>
+        <v>-0.03321856561899218</v>
       </c>
       <c r="F9">
-        <v>-0.02827007536250187</v>
+        <v>0.08425353377749707</v>
       </c>
       <c r="G9">
-        <v>-0.04114570223382451</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.04103776210258163</v>
+      </c>
+      <c r="H9">
+        <v>-0.02020315318635164</v>
+      </c>
+      <c r="I9">
+        <v>0.0003669539590383955</v>
+      </c>
+      <c r="J9">
+        <v>-0.03859838507827174</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>-0.009090280218159759</v>
+        <v>-0.01814487981717191</v>
       </c>
       <c r="C10">
-        <v>0.1588410348848315</v>
+        <v>0.1223938974933003</v>
       </c>
       <c r="D10">
-        <v>-0.01584550950652213</v>
+        <v>-0.098816370090291</v>
       </c>
       <c r="E10">
-        <v>0.06229493030669433</v>
+        <v>0.02570200971970543</v>
       </c>
       <c r="F10">
-        <v>-0.01154836268698025</v>
+        <v>0.06653525983484831</v>
       </c>
       <c r="G10">
-        <v>0.03033696158476851</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.02267758355215836</v>
+      </c>
+      <c r="H10">
+        <v>-2.12247405004357e-05</v>
+      </c>
+      <c r="I10">
+        <v>-0.1140042853417357</v>
+      </c>
+      <c r="J10">
+        <v>-0.0293795158792508</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B11">
-        <v>0.05765130949049841</v>
+        <v>-0.04841450481672208</v>
       </c>
       <c r="C11">
-        <v>-0.004038254715142266</v>
+        <v>-0.02435507870428059</v>
       </c>
       <c r="D11">
-        <v>-0.006550144624799723</v>
+        <v>0.007811211271244317</v>
       </c>
       <c r="E11">
-        <v>0.04114343598155692</v>
+        <v>-0.006276933268161351</v>
       </c>
       <c r="F11">
-        <v>-0.005339053700737418</v>
+        <v>0.04224588061414159</v>
       </c>
       <c r="G11">
-        <v>0.02944958983003882</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.009263439220621346</v>
+      </c>
+      <c r="H11">
+        <v>-0.003624379144540511</v>
+      </c>
+      <c r="I11">
+        <v>0.02465977495446629</v>
+      </c>
+      <c r="J11">
+        <v>-0.03700960600857335</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B12">
-        <v>0.04484375391265682</v>
+        <v>-0.04591939468749095</v>
       </c>
       <c r="C12">
-        <v>-0.01094383800315345</v>
+        <v>-0.01735357118897336</v>
       </c>
       <c r="D12">
-        <v>-0.002432626506046403</v>
+        <v>0.01628015459047442</v>
       </c>
       <c r="E12">
-        <v>0.03167310321637513</v>
+        <v>-0.009705000251751071</v>
       </c>
       <c r="F12">
-        <v>6.313727158456052e-05</v>
+        <v>0.02126733575132574</v>
       </c>
       <c r="G12">
-        <v>0.004477069834678449</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.0007069176429923447</v>
+      </c>
+      <c r="H12">
+        <v>-0.003549938312832951</v>
+      </c>
+      <c r="I12">
+        <v>0.02097663015375538</v>
+      </c>
+      <c r="J12">
+        <v>-0.0185362053144457</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>0.06322277807094334</v>
+        <v>-0.04182443347426083</v>
       </c>
       <c r="C13">
-        <v>-0.01346301889622032</v>
+        <v>-0.02937634207834971</v>
       </c>
       <c r="D13">
-        <v>-0.005743880710229737</v>
+        <v>0.001192908115501416</v>
       </c>
       <c r="E13">
-        <v>0.1085906628939977</v>
+        <v>-0.006899071916365491</v>
       </c>
       <c r="F13">
-        <v>-0.01242010573003391</v>
+        <v>0.1042633431605751</v>
       </c>
       <c r="G13">
-        <v>0.01369399096386447</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.02317240999546307</v>
+      </c>
+      <c r="H13">
+        <v>-0.04725670159652489</v>
+      </c>
+      <c r="I13">
+        <v>0.004935726216365842</v>
+      </c>
+      <c r="J13">
+        <v>-0.05937019363175257</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B14">
-        <v>0.03639307858785851</v>
+        <v>-0.02921256810614483</v>
       </c>
       <c r="C14">
-        <v>-0.005504748271266796</v>
+        <v>-0.01040435367423159</v>
       </c>
       <c r="D14">
-        <v>0.02210519953409369</v>
+        <v>0.01417350763723211</v>
       </c>
       <c r="E14">
-        <v>0.01892126982211948</v>
+        <v>-0.02497373918778672</v>
       </c>
       <c r="F14">
-        <v>-0.003114862149782906</v>
+        <v>0.03816253783234828</v>
       </c>
       <c r="G14">
-        <v>0.02746457884117123</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.03066246186713101</v>
+      </c>
+      <c r="H14">
+        <v>-0.04946344743768864</v>
+      </c>
+      <c r="I14">
+        <v>-0.005877678507354171</v>
+      </c>
+      <c r="J14">
+        <v>-0.01952403950987918</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1180,51 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B16">
-        <v>0.04913761861622077</v>
+        <v>-0.04341601244426205</v>
       </c>
       <c r="C16">
-        <v>-0.02055808687231749</v>
+        <v>-0.02845572803016164</v>
       </c>
       <c r="D16">
-        <v>-0.01026974329975799</v>
+        <v>0.01808463973817637</v>
       </c>
       <c r="E16">
-        <v>0.03708351552686104</v>
+        <v>-0.003867780609271264</v>
       </c>
       <c r="F16">
-        <v>0.005324370347204907</v>
+        <v>0.03584562952395392</v>
       </c>
       <c r="G16">
-        <v>0.01148462913308152</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>-0.00416466802518883</v>
+      </c>
+      <c r="H16">
+        <v>-0.01071407372195055</v>
+      </c>
+      <c r="I16">
+        <v>0.02142984808490171</v>
+      </c>
+      <c r="J16">
+        <v>-0.03034392994773542</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1244,19 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1276,115 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B19">
-        <v>0.05309476101110779</v>
+        <v>-0.04601715172482301</v>
       </c>
       <c r="C19">
-        <v>-0.02761162012973138</v>
+        <v>-0.03181818791963664</v>
       </c>
       <c r="D19">
-        <v>0.003944256781685772</v>
+        <v>0.02007034618939261</v>
       </c>
       <c r="E19">
-        <v>0.07697497142267469</v>
+        <v>-0.0146330100548653</v>
       </c>
       <c r="F19">
-        <v>0.01304608337628234</v>
+        <v>0.08763970502203333</v>
       </c>
       <c r="G19">
-        <v>0.02325829274292261</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>0.01427477497109645</v>
+      </c>
+      <c r="H19">
+        <v>-0.0858106697036931</v>
+      </c>
+      <c r="I19">
+        <v>-0.01741591651307333</v>
+      </c>
+      <c r="J19">
+        <v>-0.05597608661105048</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B20">
-        <v>0.03866146478646165</v>
+        <v>-0.01891887651544339</v>
       </c>
       <c r="C20">
-        <v>-0.0335203274723351</v>
+        <v>-0.02442917083449063</v>
       </c>
       <c r="D20">
-        <v>0.01747748157342136</v>
+        <v>0.02531123150741448</v>
       </c>
       <c r="E20">
-        <v>0.06112634498300776</v>
+        <v>-0.01989727921699717</v>
       </c>
       <c r="F20">
-        <v>0.01671121600743904</v>
+        <v>0.06969821802900335</v>
       </c>
       <c r="G20">
-        <v>0.00864578469492111</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.01413856350970827</v>
+      </c>
+      <c r="H20">
+        <v>-0.0657559607199097</v>
+      </c>
+      <c r="I20">
+        <v>-0.0007951034369154886</v>
+      </c>
+      <c r="J20">
+        <v>-0.07786185406418668</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B21">
-        <v>0.03844215338769191</v>
+        <v>-0.02301376968140843</v>
       </c>
       <c r="C21">
-        <v>-0.01468945057256635</v>
+        <v>-0.01532502531455516</v>
       </c>
       <c r="D21">
-        <v>0.006139529937349347</v>
+        <v>0.02940110943114015</v>
       </c>
       <c r="E21">
-        <v>0.09607564930920549</v>
+        <v>-0.003396558394008877</v>
       </c>
       <c r="F21">
-        <v>-0.04599739355814524</v>
+        <v>0.07874635658756633</v>
       </c>
       <c r="G21">
-        <v>0.02008189387566797</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.03578239711166659</v>
+      </c>
+      <c r="H21">
+        <v>-0.02746176198006961</v>
+      </c>
+      <c r="I21">
+        <v>0.01241526081164379</v>
+      </c>
+      <c r="J21">
+        <v>-0.02514806306219289</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1404,19 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1436,371 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B24">
-        <v>0.05010488488113623</v>
+        <v>-0.04233031866528277</v>
       </c>
       <c r="C24">
-        <v>-0.01289088249642922</v>
+        <v>-0.01906852043113444</v>
       </c>
       <c r="D24">
-        <v>-0.0001900675058632471</v>
+        <v>0.01121975764313085</v>
       </c>
       <c r="E24">
-        <v>0.04479632455499385</v>
+        <v>-0.008412097563971129</v>
       </c>
       <c r="F24">
-        <v>0.003136584720201848</v>
+        <v>0.04262952540450662</v>
       </c>
       <c r="G24">
-        <v>0.007392724436891833</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>-0.002902808860765433</v>
+      </c>
+      <c r="H24">
+        <v>-0.009139261385941838</v>
+      </c>
+      <c r="I24">
+        <v>0.02132519857383946</v>
+      </c>
+      <c r="J24">
+        <v>-0.03666378801871335</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B25">
-        <v>0.04956649180492386</v>
+        <v>-0.04419104555944126</v>
       </c>
       <c r="C25">
-        <v>-0.003466019781640533</v>
+        <v>-0.01947526005705489</v>
       </c>
       <c r="D25">
-        <v>-0.002827406230667521</v>
+        <v>0.01053893866595256</v>
       </c>
       <c r="E25">
-        <v>0.04454689943449851</v>
+        <v>-0.006531461927120589</v>
       </c>
       <c r="F25">
-        <v>-0.006936504344017572</v>
+        <v>0.04660785531690698</v>
       </c>
       <c r="G25">
-        <v>0.0156907802082762</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.00364606458926242</v>
+      </c>
+      <c r="H25">
+        <v>-0.002377260203738697</v>
+      </c>
+      <c r="I25">
+        <v>0.02041461615142669</v>
+      </c>
+      <c r="J25">
+        <v>-0.027372814985945</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B26">
-        <v>0.01031666065953492</v>
+        <v>-0.01504191321234646</v>
       </c>
       <c r="C26">
-        <v>-0.01804757682442106</v>
+        <v>-0.01812208255752768</v>
       </c>
       <c r="D26">
-        <v>0.009958345418972872</v>
+        <v>0.008191940332967705</v>
       </c>
       <c r="E26">
-        <v>0.04510073020196679</v>
+        <v>-0.001844281097453311</v>
       </c>
       <c r="F26">
-        <v>-0.01666823772162041</v>
+        <v>0.05115536565415681</v>
       </c>
       <c r="G26">
-        <v>0.02063383272024081</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>0.0206738585238736</v>
+      </c>
+      <c r="H26">
+        <v>-0.0280420949090717</v>
+      </c>
+      <c r="I26">
+        <v>0.01669001856263513</v>
+      </c>
+      <c r="J26">
+        <v>-0.03572208173535653</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B27">
-        <v>0.1108689490095193</v>
+        <v>-0.07985673925087622</v>
       </c>
       <c r="C27">
-        <v>-0.01498828918769954</v>
+        <v>-0.02231282325854374</v>
       </c>
       <c r="D27">
-        <v>0.02932587735722166</v>
+        <v>0.01832571142273744</v>
       </c>
       <c r="E27">
-        <v>0.1063621006419998</v>
+        <v>-0.03205270894550312</v>
       </c>
       <c r="F27">
-        <v>-0.01163131058149382</v>
+        <v>0.07779820127777018</v>
       </c>
       <c r="G27">
-        <v>0.001920675844089701</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>0.01630023985335153</v>
+      </c>
+      <c r="H27">
+        <v>-0.008199619387199033</v>
+      </c>
+      <c r="I27">
+        <v>-0.001229708382638584</v>
+      </c>
+      <c r="J27">
+        <v>-0.04641714500800377</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B28">
-        <v>-0.009416987079971689</v>
+        <v>-0.03330685801027192</v>
       </c>
       <c r="C28">
-        <v>0.2446387191703286</v>
+        <v>0.1859758232137893</v>
       </c>
       <c r="D28">
-        <v>-0.02326466856248341</v>
+        <v>-0.1379439606909921</v>
       </c>
       <c r="E28">
-        <v>0.03420841638125442</v>
+        <v>0.03766984238705572</v>
       </c>
       <c r="F28">
-        <v>-0.01289566251066279</v>
+        <v>0.05008919796758154</v>
       </c>
       <c r="G28">
-        <v>0.00554454040240001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>0.02810579796871045</v>
+      </c>
+      <c r="H28">
+        <v>0.01354476922535891</v>
+      </c>
+      <c r="I28">
+        <v>-0.1581786928381047</v>
+      </c>
+      <c r="J28">
+        <v>-0.0393741924178885</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B29">
-        <v>0.02050762189834775</v>
+        <v>-0.02122637317184721</v>
       </c>
       <c r="C29">
-        <v>-0.0127559481701689</v>
+        <v>-0.01052637146310238</v>
       </c>
       <c r="D29">
-        <v>0.02474201984759451</v>
+        <v>0.0190658107633658</v>
       </c>
       <c r="E29">
-        <v>0.02577279076994798</v>
+        <v>-0.02394694621359087</v>
       </c>
       <c r="F29">
-        <v>-0.01551292598907512</v>
+        <v>0.03790110051624415</v>
       </c>
       <c r="G29">
-        <v>0.0262963291877683</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>0.03369037282071125</v>
+      </c>
+      <c r="H29">
+        <v>-0.04693448563685416</v>
+      </c>
+      <c r="I29">
+        <v>0.0007406048709607153</v>
+      </c>
+      <c r="J29">
+        <v>-0.009800106943030771</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B30">
-        <v>0.1079816258457874</v>
+        <v>-0.09413526842672923</v>
       </c>
       <c r="C30">
-        <v>-0.007423232394732486</v>
+        <v>-0.05560148544158604</v>
       </c>
       <c r="D30">
-        <v>0.02723848726961213</v>
+        <v>-0.009112275852126478</v>
       </c>
       <c r="E30">
-        <v>0.1114919291777561</v>
+        <v>-0.03157058300581907</v>
       </c>
       <c r="F30">
-        <v>-4.414060003119686e-06</v>
+        <v>0.1048994177821692</v>
       </c>
       <c r="G30">
-        <v>0.05465964064790576</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>-0.01069897938049367</v>
+      </c>
+      <c r="H30">
+        <v>-0.01626696993154229</v>
+      </c>
+      <c r="I30">
+        <v>0.02595951041613331</v>
+      </c>
+      <c r="J30">
+        <v>-0.02430160961527271</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B31">
-        <v>0.05876951164654923</v>
+        <v>-0.06287645036993965</v>
       </c>
       <c r="C31">
-        <v>-0.01312484080082695</v>
+        <v>-0.02351692477171427</v>
       </c>
       <c r="D31">
-        <v>0.01980338388267848</v>
+        <v>0.001810951727722759</v>
       </c>
       <c r="E31">
-        <v>-0.02143867269032713</v>
+        <v>-0.02061542560977738</v>
       </c>
       <c r="F31">
-        <v>-0.009519830683891025</v>
+        <v>0.002995348543568861</v>
       </c>
       <c r="G31">
-        <v>0.05134849812613155</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.04285173952879398</v>
+      </c>
+      <c r="H31">
+        <v>-0.02877827119601011</v>
+      </c>
+      <c r="I31">
+        <v>-0.004266039709489129</v>
+      </c>
+      <c r="J31">
+        <v>-0.01784465655951286</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B32">
-        <v>0.069732494097152</v>
+        <v>-0.04661649604328388</v>
       </c>
       <c r="C32">
-        <v>-0.0229690840501759</v>
+        <v>-0.03213177848097771</v>
       </c>
       <c r="D32">
-        <v>0.01768438214483303</v>
+        <v>0.03995550772260108</v>
       </c>
       <c r="E32">
-        <v>0.1105964610473159</v>
+        <v>-0.02660017710609062</v>
       </c>
       <c r="F32">
-        <v>0.01126923286439141</v>
+        <v>0.09289607306081314</v>
       </c>
       <c r="G32">
-        <v>0.03501721767342333</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0.01321265068661848</v>
+      </c>
+      <c r="H32">
+        <v>-0.03600578534801489</v>
+      </c>
+      <c r="I32">
+        <v>-0.005365651130143536</v>
+      </c>
+      <c r="J32">
+        <v>-0.04773185116995324</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B33">
-        <v>0.06879320554785993</v>
+        <v>-0.0574029187708382</v>
       </c>
       <c r="C33">
-        <v>-0.03112458578621704</v>
+        <v>-0.05058926870565756</v>
       </c>
       <c r="D33">
-        <v>0.0134746577643309</v>
+        <v>0.01178401101186687</v>
       </c>
       <c r="E33">
-        <v>0.0761878967644626</v>
+        <v>-0.007035285998501607</v>
       </c>
       <c r="F33">
-        <v>-0.04478181698549217</v>
+        <v>0.08098839204076975</v>
       </c>
       <c r="G33">
-        <v>0.01916916856216467</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.03588348229745241</v>
+      </c>
+      <c r="H33">
+        <v>-0.03497744455916621</v>
+      </c>
+      <c r="I33">
+        <v>0.02608901447654518</v>
+      </c>
+      <c r="J33">
+        <v>-0.04613864704078614</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B34">
-        <v>0.04950530323424353</v>
+        <v>-0.04525373351450047</v>
       </c>
       <c r="C34">
-        <v>-0.01225728456966193</v>
+        <v>-0.02095292001103625</v>
       </c>
       <c r="D34">
-        <v>-0.001949259648882394</v>
+        <v>0.01816487639472491</v>
       </c>
       <c r="E34">
-        <v>0.02422928198228108</v>
+        <v>-0.01486471058132644</v>
       </c>
       <c r="F34">
-        <v>0.00504005115713227</v>
+        <v>0.03480245099202157</v>
       </c>
       <c r="G34">
-        <v>0.01325899977937469</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>0.005231010412332301</v>
+      </c>
+      <c r="H34">
+        <v>-0.01373378420578594</v>
+      </c>
+      <c r="I34">
+        <v>0.01952740283258013</v>
+      </c>
+      <c r="J34">
+        <v>-0.024413115485878</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1820,51 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B36">
-        <v>0.01210004085138535</v>
+        <v>-0.015189895010659</v>
       </c>
       <c r="C36">
-        <v>0.01023345448433757</v>
+        <v>0.0005459897625717524</v>
       </c>
       <c r="D36">
-        <v>0.008240633092136046</v>
+        <v>0.004844076799362141</v>
       </c>
       <c r="E36">
-        <v>0.02358738583671012</v>
+        <v>-0.008753024219876488</v>
       </c>
       <c r="F36">
-        <v>-0.008118740843781905</v>
+        <v>0.02927449746209611</v>
       </c>
       <c r="G36">
-        <v>0.02230157417627255</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0.02339283568041023</v>
+      </c>
+      <c r="H36">
+        <v>-0.02687184489317711</v>
+      </c>
+      <c r="I36">
+        <v>0.004751327237192821</v>
+      </c>
+      <c r="J36">
+        <v>-0.004724706991651105</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1884,243 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B38">
-        <v>0.05572200904902491</v>
+        <v>-0.03368608164282729</v>
       </c>
       <c r="C38">
-        <v>-0.005711280266103965</v>
+        <v>-0.008150200709097152</v>
       </c>
       <c r="D38">
-        <v>0.02717033813864246</v>
+        <v>0.008489361890921615</v>
       </c>
       <c r="E38">
-        <v>0.0380106413747071</v>
+        <v>-0.01018293623512322</v>
       </c>
       <c r="F38">
-        <v>-0.004242731479943112</v>
+        <v>0.05246856548254615</v>
       </c>
       <c r="G38">
-        <v>-0.02434137089436442</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>0.02762456001253563</v>
+      </c>
+      <c r="H38">
+        <v>-0.01193942061680344</v>
+      </c>
+      <c r="I38">
+        <v>0.009215462845422713</v>
+      </c>
+      <c r="J38">
+        <v>0.001977779827539573</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B39">
-        <v>0.07637355998143498</v>
+        <v>-0.05731209913230795</v>
       </c>
       <c r="C39">
-        <v>-0.009821386855902893</v>
+        <v>-0.03592508664713948</v>
       </c>
       <c r="D39">
-        <v>0.005359339429428248</v>
+        <v>0.01772991902752301</v>
       </c>
       <c r="E39">
-        <v>0.04467366676542123</v>
+        <v>-0.01589095906664442</v>
       </c>
       <c r="F39">
-        <v>-0.01951997968284527</v>
+        <v>0.05806200920995645</v>
       </c>
       <c r="G39">
-        <v>0.01755886963292071</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>0.01726370376922801</v>
+      </c>
+      <c r="H39">
+        <v>-0.0003408983414444557</v>
+      </c>
+      <c r="I39">
+        <v>0.0452177793023151</v>
+      </c>
+      <c r="J39">
+        <v>-0.03195777358598632</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B40">
-        <v>0.07357314248668743</v>
+        <v>-0.0563287598995834</v>
       </c>
       <c r="C40">
-        <v>-0.02515032936858968</v>
+        <v>-0.04276709769337816</v>
       </c>
       <c r="D40">
-        <v>0.0101415563148794</v>
+        <v>0.003414294879446228</v>
       </c>
       <c r="E40">
-        <v>0.104777837713631</v>
+        <v>-0.0212984666909424</v>
       </c>
       <c r="F40">
-        <v>-0.03170242805802637</v>
+        <v>0.09999654421391176</v>
       </c>
       <c r="G40">
-        <v>-0.02602439245039672</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>0.02866679074317924</v>
+      </c>
+      <c r="H40">
+        <v>-0.05363688786565069</v>
+      </c>
+      <c r="I40">
+        <v>0.01855554514580044</v>
+      </c>
+      <c r="J40">
+        <v>-0.1104114239035596</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B41">
-        <v>0.00289347610338242</v>
+        <v>-0.002542415407555822</v>
       </c>
       <c r="C41">
-        <v>-0.009850187522380012</v>
+        <v>-0.009062639637042144</v>
       </c>
       <c r="D41">
-        <v>0.02300158725915388</v>
+        <v>0.007263665810009582</v>
       </c>
       <c r="E41">
-        <v>0.01198494895324081</v>
+        <v>-0.007021447204767184</v>
       </c>
       <c r="F41">
-        <v>-0.02777056484513573</v>
+        <v>0.01556487185764552</v>
       </c>
       <c r="G41">
-        <v>0.02602291416247883</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.03854988910519082</v>
+      </c>
+      <c r="H41">
+        <v>-0.03182266383545456</v>
+      </c>
+      <c r="I41">
+        <v>-0.01521853807510422</v>
+      </c>
+      <c r="J41">
+        <v>-0.01945705385842445</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B42">
-        <v>0.1412060943348471</v>
+        <v>-0.2194781376705154</v>
       </c>
       <c r="C42">
-        <v>-0.2217050188384034</v>
+        <v>-0.2014788182662332</v>
       </c>
       <c r="D42">
-        <v>-0.9249893833701287</v>
+        <v>0.05860490726595664</v>
       </c>
       <c r="E42">
-        <v>-0.001784536518950672</v>
+        <v>0.9257941664484668</v>
       </c>
       <c r="F42">
-        <v>0.008611788645376425</v>
+        <v>-0.145365411079535</v>
       </c>
       <c r="G42">
-        <v>0.07683229130318756</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>-0.006845988700258515</v>
+      </c>
+      <c r="H42">
+        <v>0.0002085266861218625</v>
+      </c>
+      <c r="I42">
+        <v>-0.03858191203070474</v>
+      </c>
+      <c r="J42">
+        <v>-0.03882499367810664</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B43">
-        <v>0.006936750984486019</v>
+        <v>-0.004887110131092795</v>
       </c>
       <c r="C43">
-        <v>-0.01415199469389609</v>
+        <v>-0.01294441186411011</v>
       </c>
       <c r="D43">
-        <v>0.01860183913444997</v>
+        <v>0.006683371115195041</v>
       </c>
       <c r="E43">
-        <v>0.03325494899074032</v>
+        <v>-0.007264717231064349</v>
       </c>
       <c r="F43">
-        <v>-0.002803009136426582</v>
+        <v>0.02924058635691656</v>
       </c>
       <c r="G43">
-        <v>0.02065759551562224</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.0221009593388524</v>
+      </c>
+      <c r="H43">
+        <v>-0.03145578887744874</v>
+      </c>
+      <c r="I43">
+        <v>-0.005806816538344159</v>
+      </c>
+      <c r="J43">
+        <v>-0.02680629038214397</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B44">
-        <v>0.03927241988579314</v>
+        <v>-0.0285003688977634</v>
       </c>
       <c r="C44">
-        <v>-0.03449590765861572</v>
+        <v>-0.03184322170736457</v>
       </c>
       <c r="D44">
-        <v>0.01841136226691203</v>
+        <v>0.02469229331110877</v>
       </c>
       <c r="E44">
-        <v>0.1189447686047008</v>
+        <v>-0.007029974489568295</v>
       </c>
       <c r="F44">
-        <v>-0.07990834197122605</v>
+        <v>0.1229504204226379</v>
       </c>
       <c r="G44">
-        <v>0.03690690330282249</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>0.0616973013085922</v>
+      </c>
+      <c r="H44">
+        <v>-0.1006786947053029</v>
+      </c>
+      <c r="I44">
+        <v>-0.01622573622675233</v>
+      </c>
+      <c r="J44">
+        <v>-0.03800886196909643</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +2140,115 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B46">
-        <v>0.02280908836614258</v>
+        <v>-0.02384307144981875</v>
       </c>
       <c r="C46">
-        <v>-0.01020021121180905</v>
+        <v>-0.02255403199461539</v>
       </c>
       <c r="D46">
-        <v>0.02640813632638277</v>
+        <v>0.0126633737435726</v>
       </c>
       <c r="E46">
-        <v>0.02402956876661763</v>
+        <v>-0.02111522715620939</v>
       </c>
       <c r="F46">
-        <v>-0.02383672633108221</v>
+        <v>0.04730521222163391</v>
       </c>
       <c r="G46">
-        <v>0.03214150770239829</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>0.03116198968234042</v>
+      </c>
+      <c r="H46">
+        <v>-0.05049781099327014</v>
+      </c>
+      <c r="I46">
+        <v>-0.0033300791082105</v>
+      </c>
+      <c r="J46">
+        <v>-0.02816101033068806</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B47">
-        <v>0.08408804503422966</v>
+        <v>-0.0908988829302963</v>
       </c>
       <c r="C47">
-        <v>-0.005585391831929635</v>
+        <v>-0.01963732403446638</v>
       </c>
       <c r="D47">
-        <v>0.01978665343911733</v>
+        <v>0.004492004429775989</v>
       </c>
       <c r="E47">
-        <v>-0.02211635603813303</v>
+        <v>-0.02530114420833655</v>
       </c>
       <c r="F47">
-        <v>-0.01286017011736501</v>
+        <v>-0.007099898691810914</v>
       </c>
       <c r="G47">
-        <v>0.03255325907109999</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.04464797176634638</v>
+      </c>
+      <c r="H47">
+        <v>-0.05221494332200734</v>
+      </c>
+      <c r="I47">
+        <v>-0.007791341879294834</v>
+      </c>
+      <c r="J47">
+        <v>-0.02650923365376977</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B48">
-        <v>0.01573674528232605</v>
+        <v>-0.01807945592410035</v>
       </c>
       <c r="C48">
-        <v>-0.01679777747867547</v>
+        <v>-0.01565935315095841</v>
       </c>
       <c r="D48">
-        <v>0.01888082058188035</v>
+        <v>0.01308562039573822</v>
       </c>
       <c r="E48">
-        <v>0.03310187796765197</v>
+        <v>-0.01243448362621275</v>
       </c>
       <c r="F48">
-        <v>-0.01099772810127615</v>
+        <v>0.03331313103043534</v>
       </c>
       <c r="G48">
-        <v>0.01038434768135933</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>0.01537157032769928</v>
+      </c>
+      <c r="H48">
+        <v>-0.02229487594045002</v>
+      </c>
+      <c r="I48">
+        <v>-0.006923681081862467</v>
+      </c>
+      <c r="J48">
+        <v>-0.01736589474635504</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +2268,83 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B50">
-        <v>0.08468009837052208</v>
+        <v>-0.08762504058470978</v>
       </c>
       <c r="C50">
-        <v>-0.02598689192732587</v>
+        <v>-0.02344226118970854</v>
       </c>
       <c r="D50">
-        <v>0.02740462620868104</v>
+        <v>0.02682904618760613</v>
       </c>
       <c r="E50">
-        <v>-0.01683931389195534</v>
+        <v>-0.02260302095254269</v>
       </c>
       <c r="F50">
-        <v>-0.002301645699835858</v>
+        <v>0.0007812406912729058</v>
       </c>
       <c r="G50">
-        <v>0.0367059808057275</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>0.007285364022901821</v>
+      </c>
+      <c r="H50">
+        <v>-0.04109239610458436</v>
+      </c>
+      <c r="I50">
+        <v>0.0167742415726128</v>
+      </c>
+      <c r="J50">
+        <v>0.001312985004791861</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B51">
-        <v>0.06819282966812595</v>
+        <v>-0.04671253062432943</v>
       </c>
       <c r="C51">
-        <v>0.02352255347808445</v>
+        <v>-0.005876068600465239</v>
       </c>
       <c r="D51">
-        <v>0.0004474519812358835</v>
+        <v>-0.01312368105910089</v>
       </c>
       <c r="E51">
-        <v>0.08330949294024677</v>
+        <v>-0.008134471664791837</v>
       </c>
       <c r="F51">
-        <v>-0.04839544614112799</v>
+        <v>0.09385251648177186</v>
       </c>
       <c r="G51">
-        <v>0.08508910902742933</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>0.05584908946409276</v>
+      </c>
+      <c r="H51">
+        <v>-0.04719473123576488</v>
+      </c>
+      <c r="I51">
+        <v>-0.00969695529903363</v>
+      </c>
+      <c r="J51">
+        <v>-0.05472230189114924</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2364,307 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B53">
-        <v>0.1457086573793633</v>
+        <v>-0.1278573527779821</v>
       </c>
       <c r="C53">
-        <v>-0.005819121386967692</v>
+        <v>-0.03209818208698402</v>
       </c>
       <c r="D53">
-        <v>0.04005673042967761</v>
+        <v>0.01026459672005708</v>
       </c>
       <c r="E53">
-        <v>-0.04574996904658842</v>
+        <v>-0.0470818049071127</v>
       </c>
       <c r="F53">
-        <v>0.003696021109005105</v>
+        <v>-0.03727270530077892</v>
       </c>
       <c r="G53">
-        <v>0.03839610899825224</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>0.02812065299644525</v>
+      </c>
+      <c r="H53">
+        <v>0.006550265915472582</v>
+      </c>
+      <c r="I53">
+        <v>-0.0271716654405921</v>
+      </c>
+      <c r="J53">
+        <v>-0.03841242700187897</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B54">
-        <v>0.02643411329027825</v>
+        <v>-0.02357338839037127</v>
       </c>
       <c r="C54">
-        <v>0.007540391190295101</v>
+        <v>-0.003018914056817383</v>
       </c>
       <c r="D54">
-        <v>0.03068869363690539</v>
+        <v>0.008254012090399918</v>
       </c>
       <c r="E54">
-        <v>0.03254359745308798</v>
+        <v>-0.02639534945233886</v>
       </c>
       <c r="F54">
-        <v>-0.04904353993005314</v>
+        <v>0.0410415407827943</v>
       </c>
       <c r="G54">
-        <v>0.01367084062710924</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>0.05220538810253932</v>
+      </c>
+      <c r="H54">
+        <v>-0.04108746011595359</v>
+      </c>
+      <c r="I54">
+        <v>-0.02961550102393251</v>
+      </c>
+      <c r="J54">
+        <v>-0.00227883806937253</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B55">
-        <v>0.09846679774736822</v>
+        <v>-0.1015153353345152</v>
       </c>
       <c r="C55">
-        <v>0.008304001137606086</v>
+        <v>-0.01008820720575279</v>
       </c>
       <c r="D55">
-        <v>0.03392053158494127</v>
+        <v>0.01999247982252408</v>
       </c>
       <c r="E55">
-        <v>-0.006593601818516932</v>
+        <v>-0.03215990239999732</v>
       </c>
       <c r="F55">
-        <v>0.03311866918636528</v>
+        <v>-0.02565826348247867</v>
       </c>
       <c r="G55">
-        <v>-0.0175037673427147</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>-0.004865874224656467</v>
+      </c>
+      <c r="H55">
+        <v>-0.01723256047579653</v>
+      </c>
+      <c r="I55">
+        <v>-0.006942718991086584</v>
+      </c>
+      <c r="J55">
+        <v>-0.0380499062067049</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B56">
-        <v>0.1787395192813226</v>
+        <v>-0.1691892665396563</v>
       </c>
       <c r="C56">
-        <v>0.01816830339650036</v>
+        <v>-0.01177987551703829</v>
       </c>
       <c r="D56">
-        <v>0.07359082445926282</v>
+        <v>0.00699379468878642</v>
       </c>
       <c r="E56">
-        <v>-0.08557686877282765</v>
+        <v>-0.0850214447020665</v>
       </c>
       <c r="F56">
-        <v>0.06661151886252752</v>
+        <v>-0.07971805510233913</v>
       </c>
       <c r="G56">
-        <v>-0.01117505108212249</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>-0.02413564929341186</v>
+      </c>
+      <c r="H56">
+        <v>0.04225828805956686</v>
+      </c>
+      <c r="I56">
+        <v>-0.01227004552228195</v>
+      </c>
+      <c r="J56">
+        <v>-0.04991659282339698</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B57">
-        <v>0.09484114003073181</v>
+        <v>-0.07197205716051999</v>
       </c>
       <c r="C57">
-        <v>-0.01684736036716914</v>
+        <v>-0.03515489894278002</v>
       </c>
       <c r="D57">
-        <v>0.03142717325053698</v>
+        <v>0.003013655888417801</v>
       </c>
       <c r="E57">
-        <v>0.0525994220427283</v>
+        <v>-0.01553946125979308</v>
       </c>
       <c r="F57">
-        <v>-0.02975338376785655</v>
+        <v>0.06715382608196638</v>
       </c>
       <c r="G57">
-        <v>0.01818506215801295</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>0.02733256857390232</v>
+      </c>
+      <c r="H57">
+        <v>-0.0242704265311543</v>
+      </c>
+      <c r="I57">
+        <v>0.01932512316485222</v>
+      </c>
+      <c r="J57">
+        <v>-0.03264453650477987</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B58">
-        <v>0.1732520831367754</v>
+        <v>-0.1997347927889773</v>
       </c>
       <c r="C58">
-        <v>0.003308032956186564</v>
+        <v>-0.09988713001623052</v>
       </c>
       <c r="D58">
-        <v>-0.03403588583417745</v>
+        <v>-0.0400746605620767</v>
       </c>
       <c r="E58">
-        <v>0.1385117122025428</v>
+        <v>0.01094974574022259</v>
       </c>
       <c r="F58">
-        <v>0.04865103737293043</v>
+        <v>0.2357986085532034</v>
       </c>
       <c r="G58">
-        <v>0.01517839882467378</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>-0.1401267958936912</v>
+      </c>
+      <c r="H58">
+        <v>-0.3975165389475082</v>
+      </c>
+      <c r="I58">
+        <v>-0.08408948910259847</v>
+      </c>
+      <c r="J58">
+        <v>0.7517646603720712</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B59">
-        <v>0.002401081512954673</v>
+        <v>-0.0360681936963663</v>
       </c>
       <c r="C59">
-        <v>0.2034834119329852</v>
+        <v>0.1491925945407609</v>
       </c>
       <c r="D59">
-        <v>0.007004646046043594</v>
+        <v>-0.132916150359696</v>
       </c>
       <c r="E59">
-        <v>0.05050968153417441</v>
+        <v>0.003188819411577714</v>
       </c>
       <c r="F59">
-        <v>-0.008087692759414249</v>
+        <v>0.06585294786502729</v>
       </c>
       <c r="G59">
-        <v>0.01939095044220156</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>0.003312489741200139</v>
+      </c>
+      <c r="H59">
+        <v>0.01509841131928226</v>
+      </c>
+      <c r="I59">
+        <v>-0.06518574381493784</v>
+      </c>
+      <c r="J59">
+        <v>-0.007437738382662356</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B60">
-        <v>0.1841499795109288</v>
+        <v>-0.1829102989749538</v>
       </c>
       <c r="C60">
-        <v>0.1123383323725258</v>
+        <v>0.01549515189128297</v>
       </c>
       <c r="D60">
-        <v>0.02687735334214348</v>
+        <v>-0.07438651747584356</v>
       </c>
       <c r="E60">
-        <v>0.1767368986456958</v>
+        <v>-0.01191467938061376</v>
       </c>
       <c r="F60">
-        <v>-0.03360388257573405</v>
+        <v>0.2036790439891228</v>
       </c>
       <c r="G60">
-        <v>0.03006106941224278</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>-0.0988228316340016</v>
+      </c>
+      <c r="H60">
+        <v>0.2580540542270292</v>
+      </c>
+      <c r="I60">
+        <v>0.0871339877466106</v>
+      </c>
+      <c r="J60">
+        <v>0.01711998754268082</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B61">
-        <v>0.04742728883535287</v>
+        <v>-0.0376403489363516</v>
       </c>
       <c r="C61">
-        <v>0.001168802175745937</v>
+        <v>-0.01802619808517929</v>
       </c>
       <c r="D61">
-        <v>-0.002230302722793598</v>
+        <v>0.01256829362713211</v>
       </c>
       <c r="E61">
-        <v>0.04941371873831665</v>
+        <v>-0.004711429916225543</v>
       </c>
       <c r="F61">
-        <v>-0.01363539466286653</v>
+        <v>0.04531603313901146</v>
       </c>
       <c r="G61">
-        <v>0.01119924536220914</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>0.01126134744794403</v>
+      </c>
+      <c r="H61">
+        <v>0.0007573491163304493</v>
+      </c>
+      <c r="I61">
+        <v>0.04346494228794138</v>
+      </c>
+      <c r="J61">
+        <v>-0.010543465987132</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2684,243 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B63">
-        <v>0.04648559576436456</v>
+        <v>-0.03191447550421299</v>
       </c>
       <c r="C63">
-        <v>0.007043741194691092</v>
+        <v>-0.0147225834916828</v>
       </c>
       <c r="D63">
-        <v>0.01840340005976395</v>
+        <v>0.007491584283128828</v>
       </c>
       <c r="E63">
-        <v>0.03640277354152446</v>
+        <v>-0.01512046043608533</v>
       </c>
       <c r="F63">
-        <v>-0.00498022054252917</v>
+        <v>0.0310719348417256</v>
       </c>
       <c r="G63">
-        <v>0.01946118538067482</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>0.01783667563568685</v>
+      </c>
+      <c r="H63">
+        <v>-0.0376935772634916</v>
+      </c>
+      <c r="I63">
+        <v>-0.01505227246073537</v>
+      </c>
+      <c r="J63">
+        <v>-0.04569174869813802</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B64">
-        <v>0.07892005683571428</v>
+        <v>-0.05490635570333571</v>
       </c>
       <c r="C64">
-        <v>-0.03580794801907224</v>
+        <v>-0.02970919538859843</v>
       </c>
       <c r="D64">
-        <v>0.06771156728932316</v>
+        <v>0.03882326564927645</v>
       </c>
       <c r="E64">
-        <v>0.06851095974970148</v>
+        <v>-0.04127145802399363</v>
       </c>
       <c r="F64">
-        <v>-0.06067599178063066</v>
+        <v>0.06202683666198357</v>
       </c>
       <c r="G64">
-        <v>-0.02152645271471076</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>0.05828027784407688</v>
+      </c>
+      <c r="H64">
+        <v>0.006209050423435469</v>
+      </c>
+      <c r="I64">
+        <v>0.0008869108276842963</v>
+      </c>
+      <c r="J64">
+        <v>-0.08989641194507896</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>-0.01993376956807774</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>-0.001375069004383857</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>0.008466054301570552</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>-0.002761716600240187</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>-0.0001943502002535251</v>
       </c>
       <c r="G65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>-0.02040159257477663</v>
+      </c>
+      <c r="H65">
+        <v>-4.354268466382023e-05</v>
+      </c>
+      <c r="I65">
+        <v>0.01149650850196395</v>
+      </c>
+      <c r="J65">
+        <v>-0.002141924397575473</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B66">
-        <v>0.0952593325187276</v>
+        <v>-0.06888453736207566</v>
       </c>
       <c r="C66">
-        <v>-0.01887125948724016</v>
+        <v>-0.05044574120167832</v>
       </c>
       <c r="D66">
-        <v>0.04541266837694369</v>
+        <v>0.01846374789248529</v>
       </c>
       <c r="E66">
-        <v>0.08106634805994331</v>
+        <v>-0.04492171755674805</v>
       </c>
       <c r="F66">
-        <v>-0.03901859835496616</v>
+        <v>0.07414000804141969</v>
       </c>
       <c r="G66">
-        <v>0.0306919901910231</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>0.0160169995088934</v>
+      </c>
+      <c r="H66">
+        <v>0.004258668565308999</v>
+      </c>
+      <c r="I66">
+        <v>0.06237120227924921</v>
+      </c>
+      <c r="J66">
+        <v>-0.05359365224308783</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B67">
-        <v>0.06316581324181403</v>
+        <v>-0.04531270700729135</v>
       </c>
       <c r="C67">
-        <v>0.01795062061384434</v>
+        <v>0.003563090993686219</v>
       </c>
       <c r="D67">
-        <v>0.01255826280654628</v>
+        <v>-0.005093458073874402</v>
       </c>
       <c r="E67">
-        <v>0.03146281442774608</v>
+        <v>-0.007557087257083493</v>
       </c>
       <c r="F67">
-        <v>-0.006944998101782995</v>
+        <v>0.04102890040915381</v>
       </c>
       <c r="G67">
-        <v>-0.03496444569101796</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>0.03273736967239183</v>
+      </c>
+      <c r="H67">
+        <v>0.01164325619145502</v>
+      </c>
+      <c r="I67">
+        <v>0.03934533245530511</v>
+      </c>
+      <c r="J67">
+        <v>0.0001736405468645629</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B68">
-        <v>0.001458458775721768</v>
+        <v>-0.04251447929752959</v>
       </c>
       <c r="C68">
-        <v>0.2473657802293879</v>
+        <v>0.1796787298823725</v>
       </c>
       <c r="D68">
-        <v>-0.01280662241437311</v>
+        <v>-0.1509587143791526</v>
       </c>
       <c r="E68">
-        <v>0.03730839897113213</v>
+        <v>0.01527967805359932</v>
       </c>
       <c r="F68">
-        <v>-0.002671949530211635</v>
+        <v>0.05002351447154083</v>
       </c>
       <c r="G68">
-        <v>0.03087836493650508</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>-0.004963884039265758</v>
+      </c>
+      <c r="H68">
+        <v>0.006968563395997803</v>
+      </c>
+      <c r="I68">
+        <v>-0.1681046092855078</v>
+      </c>
+      <c r="J68">
+        <v>0.008780870183812146</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B69">
-        <v>0.06914526881606146</v>
+        <v>-0.07126073493924942</v>
       </c>
       <c r="C69">
-        <v>-0.008815830118011363</v>
+        <v>-0.01930230076371591</v>
       </c>
       <c r="D69">
-        <v>0.02359953644443384</v>
+        <v>0.005494725435979537</v>
       </c>
       <c r="E69">
-        <v>-0.01054648004994295</v>
+        <v>-0.03026154716299712</v>
       </c>
       <c r="F69">
-        <v>-0.003532911004670302</v>
+        <v>0.003259431142157829</v>
       </c>
       <c r="G69">
-        <v>0.02399849896706771</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>0.03098894015707544</v>
+      </c>
+      <c r="H69">
+        <v>-0.02817901424089743</v>
+      </c>
+      <c r="I69">
+        <v>0.01499610952889871</v>
+      </c>
+      <c r="J69">
+        <v>-0.02875586407977626</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2940,275 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B71">
-        <v>0.003506952366106453</v>
+        <v>-0.04639241500144024</v>
       </c>
       <c r="C71">
-        <v>0.2738975642033856</v>
+        <v>0.190705032615426</v>
       </c>
       <c r="D71">
-        <v>-0.01102263734164052</v>
+        <v>-0.1685823421732842</v>
       </c>
       <c r="E71">
-        <v>0.07393841497146621</v>
+        <v>0.03793902845581691</v>
       </c>
       <c r="F71">
-        <v>-0.01011841829132601</v>
+        <v>0.07374335502209019</v>
       </c>
       <c r="G71">
-        <v>0.05719319656553957</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>0.01219232333069007</v>
+      </c>
+      <c r="H71">
+        <v>0.0290262158048538</v>
+      </c>
+      <c r="I71">
+        <v>-0.1326432704177638</v>
+      </c>
+      <c r="J71">
+        <v>-0.01713137805475461</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B72">
-        <v>0.1152128638901253</v>
+        <v>-0.1203638660705778</v>
       </c>
       <c r="C72">
-        <v>0.01432862632237401</v>
+        <v>-0.01428563554767128</v>
       </c>
       <c r="D72">
-        <v>0.04956555139380766</v>
+        <v>0.0005188132583594991</v>
       </c>
       <c r="E72">
-        <v>0.09528561059098127</v>
+        <v>-0.05493698580623224</v>
       </c>
       <c r="F72">
-        <v>0.01529089097055344</v>
+        <v>0.08533643539793793</v>
       </c>
       <c r="G72">
-        <v>-0.01186855355750197</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>-0.05321364692997959</v>
+      </c>
+      <c r="H72">
+        <v>-0.0183452404223154</v>
+      </c>
+      <c r="I72">
+        <v>0.04030794833374824</v>
+      </c>
+      <c r="J72">
+        <v>0.08267193906678612</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B73">
-        <v>0.2716072246902986</v>
+        <v>-0.2629244013219232</v>
       </c>
       <c r="C73">
-        <v>0.1819987821987624</v>
+        <v>0.02756156515694978</v>
       </c>
       <c r="D73">
-        <v>-0.02103285227955251</v>
+        <v>-0.1380716678164345</v>
       </c>
       <c r="E73">
-        <v>0.3299051078552837</v>
+        <v>0.032671953780633</v>
       </c>
       <c r="F73">
-        <v>-0.02205879714901213</v>
+        <v>0.3161452723469776</v>
       </c>
       <c r="G73">
-        <v>0.01352579339762258</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>-0.2063831408916519</v>
+      </c>
+      <c r="H73">
+        <v>0.4507415113160033</v>
+      </c>
+      <c r="I73">
+        <v>0.2890517906514341</v>
+      </c>
+      <c r="J73">
+        <v>0.07941339019261895</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B74">
-        <v>0.1612097712821026</v>
+        <v>-0.1525377922275094</v>
       </c>
       <c r="C74">
-        <v>0.008282533518893591</v>
+        <v>-0.02563796009652085</v>
       </c>
       <c r="D74">
-        <v>0.04232600789477665</v>
+        <v>-0.0006830747182508194</v>
       </c>
       <c r="E74">
-        <v>-0.01613720064279079</v>
+        <v>-0.04830900001692766</v>
       </c>
       <c r="F74">
-        <v>0.05293667136599956</v>
+        <v>-0.04971194181491616</v>
       </c>
       <c r="G74">
-        <v>0.05600221802793585</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>-0.01534562294501938</v>
+      </c>
+      <c r="H74">
+        <v>0.02814613781373106</v>
+      </c>
+      <c r="I74">
+        <v>0.006735865760553566</v>
+      </c>
+      <c r="J74">
+        <v>-0.08366832901529501</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B75">
-        <v>0.2376059424110281</v>
+        <v>-0.2482016695632471</v>
       </c>
       <c r="C75">
-        <v>0.01572486549854345</v>
+        <v>-0.02813883091707048</v>
       </c>
       <c r="D75">
-        <v>0.05621185364647854</v>
+        <v>-0.01743407783467845</v>
       </c>
       <c r="E75">
-        <v>-0.1419333496290872</v>
+        <v>-0.1037928922564009</v>
       </c>
       <c r="F75">
-        <v>0.04713599719167515</v>
+        <v>-0.1432010205642726</v>
       </c>
       <c r="G75">
-        <v>0.0245395540102582</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>0.006956556891515973</v>
+      </c>
+      <c r="H75">
+        <v>0.01688415868412586</v>
+      </c>
+      <c r="I75">
+        <v>-0.0869868260228254</v>
+      </c>
+      <c r="J75">
+        <v>-0.05445987925820256</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B76">
-        <v>0.247349604698733</v>
+        <v>-0.2700811708830429</v>
       </c>
       <c r="C76">
-        <v>0.01905140211074982</v>
+        <v>-0.009057876980561052</v>
       </c>
       <c r="D76">
-        <v>0.09919249468884053</v>
+        <v>0.01548090741716307</v>
       </c>
       <c r="E76">
-        <v>-0.1299330010465583</v>
+        <v>-0.1308476255686836</v>
       </c>
       <c r="F76">
-        <v>0.06778357332479078</v>
+        <v>-0.1716618608263756</v>
       </c>
       <c r="G76">
-        <v>0.03064688515729361</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>-0.04678678324145111</v>
+      </c>
+      <c r="H76">
+        <v>0.04338626101337549</v>
+      </c>
+      <c r="I76">
+        <v>-0.0003591857448648164</v>
+      </c>
+      <c r="J76">
+        <v>-0.07002799982991577</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B77">
-        <v>0.1303164117237946</v>
+        <v>-0.1296701806727554</v>
       </c>
       <c r="C77">
-        <v>-0.01431232644832824</v>
+        <v>-0.05671552445447992</v>
       </c>
       <c r="D77">
-        <v>-0.03812883425866721</v>
+        <v>0.02738272285173291</v>
       </c>
       <c r="E77">
-        <v>0.1546572681148456</v>
+        <v>0.03777894910045866</v>
       </c>
       <c r="F77">
-        <v>-0.005524809541864381</v>
+        <v>0.1659113822203045</v>
       </c>
       <c r="G77">
-        <v>-0.06153709697605519</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>0.01536293616199434</v>
+      </c>
+      <c r="H77">
+        <v>-0.2055394576584805</v>
+      </c>
+      <c r="I77">
+        <v>-0.1463418953142178</v>
+      </c>
+      <c r="J77">
+        <v>-0.1363749866704714</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B78">
-        <v>0.08492723250416492</v>
+        <v>-0.08312347878732791</v>
       </c>
       <c r="C78">
-        <v>-0.03429332108530699</v>
+        <v>-0.05080610076577075</v>
       </c>
       <c r="D78">
-        <v>-0.01090418613746746</v>
+        <v>0.03984737307416941</v>
       </c>
       <c r="E78">
-        <v>0.06248603801575404</v>
+        <v>-0.0007108942160146774</v>
       </c>
       <c r="F78">
-        <v>-0.01671037956818475</v>
+        <v>0.08396011294838016</v>
       </c>
       <c r="G78">
-        <v>0.02150698029877471</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>0.01441737991188425</v>
+      </c>
+      <c r="H78">
+        <v>-0.03382689772888238</v>
+      </c>
+      <c r="I78">
+        <v>-0.009688791297060122</v>
+      </c>
+      <c r="J78">
+        <v>-0.05418870543054791</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +3228,83 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B80">
-        <v>0.07016906468043783</v>
+        <v>-0.150022583354183</v>
       </c>
       <c r="C80">
-        <v>-0.007845986191145796</v>
+        <v>0.6117744867684505</v>
       </c>
       <c r="D80">
-        <v>-0.03030727126692086</v>
+        <v>0.7561913547171866</v>
       </c>
       <c r="E80">
-        <v>0.02462069881969998</v>
+        <v>0.06747301643819491</v>
       </c>
       <c r="F80">
-        <v>0.07814318881079893</v>
+        <v>0.04764160598120401</v>
       </c>
       <c r="G80">
-        <v>-0.9275193184711694</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>0.04222192246373357</v>
+      </c>
+      <c r="H80">
+        <v>0.05441162652769309</v>
+      </c>
+      <c r="I80">
+        <v>-0.001185369398495966</v>
+      </c>
+      <c r="J80">
+        <v>0.1040877152884761</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B81">
-        <v>0.1630048332956461</v>
+        <v>-0.1818205677245318</v>
       </c>
       <c r="C81">
-        <v>0.01596062814500431</v>
+        <v>-0.006017183379801803</v>
       </c>
       <c r="D81">
-        <v>0.0430131694012242</v>
+        <v>-0.006663783502067496</v>
       </c>
       <c r="E81">
-        <v>-0.1510512622543988</v>
+        <v>-0.08482818963499181</v>
       </c>
       <c r="F81">
-        <v>0.08740953610445834</v>
+        <v>-0.1524943845439421</v>
       </c>
       <c r="G81">
-        <v>0.01577412292384893</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>-0.02283680809237919</v>
+      </c>
+      <c r="H81">
+        <v>0.01055899272702026</v>
+      </c>
+      <c r="I81">
+        <v>-0.0435359844645018</v>
+      </c>
+      <c r="J81">
+        <v>-0.01952142992794038</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +3324,51 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B83">
-        <v>0.09251516027100377</v>
+        <v>-0.06833813608124474</v>
       </c>
       <c r="C83">
-        <v>-0.03870027518011365</v>
+        <v>-0.04602874130848051</v>
       </c>
       <c r="D83">
-        <v>-0.0768488194702284</v>
+        <v>0.01392522767814505</v>
       </c>
       <c r="E83">
-        <v>0.03049200871844601</v>
+        <v>0.03864908237306097</v>
       </c>
       <c r="F83">
-        <v>-0.06824989027987144</v>
+        <v>0.05364630645470995</v>
       </c>
       <c r="G83">
-        <v>0.02467802055577195</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>0.06051271542636119</v>
+      </c>
+      <c r="H83">
+        <v>-0.01338899938800475</v>
+      </c>
+      <c r="I83">
+        <v>0.002832067191430324</v>
+      </c>
+      <c r="J83">
+        <v>-0.0800468305619592</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +3388,371 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B85">
-        <v>0.2376386217131025</v>
+        <v>-0.2546108029552525</v>
       </c>
       <c r="C85">
-        <v>-0.04494354007640416</v>
+        <v>-0.04716897097913053</v>
       </c>
       <c r="D85">
-        <v>0.05672046847668773</v>
+        <v>0.02198062011034869</v>
       </c>
       <c r="E85">
-        <v>-0.1540667911786353</v>
+        <v>-0.08860983712281835</v>
       </c>
       <c r="F85">
-        <v>0.05933021713167559</v>
+        <v>-0.1745733170265475</v>
       </c>
       <c r="G85">
-        <v>0.0106985201214737</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>-0.002127566833011929</v>
+      </c>
+      <c r="H85">
+        <v>-0.01676065615259597</v>
+      </c>
+      <c r="I85">
+        <v>-0.03775878181364579</v>
+      </c>
+      <c r="J85">
+        <v>-0.1054769864270016</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B86">
-        <v>0.0461937491931423</v>
+        <v>-0.02652010943978832</v>
       </c>
       <c r="C86">
-        <v>-0.0421930083740272</v>
+        <v>-0.04669011494676872</v>
       </c>
       <c r="D86">
-        <v>0.02167277459732534</v>
+        <v>0.03431674629912656</v>
       </c>
       <c r="E86">
-        <v>0.06183554907898849</v>
+        <v>-0.01052615701735756</v>
       </c>
       <c r="F86">
-        <v>0.004066804857223132</v>
+        <v>0.07339707515850317</v>
       </c>
       <c r="G86">
-        <v>0.03273252939311724</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>0.009106594693494579</v>
+      </c>
+      <c r="H86">
+        <v>-0.06646000981136058</v>
+      </c>
+      <c r="I86">
+        <v>-0.01633369954800756</v>
+      </c>
+      <c r="J86">
+        <v>-0.05040589161161287</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B87">
-        <v>0.01766924671952183</v>
+        <v>-0.03283327518994803</v>
       </c>
       <c r="C87">
-        <v>0.05221001719851995</v>
+        <v>0.01334913024217947</v>
       </c>
       <c r="D87">
-        <v>0.009806007832387003</v>
+        <v>-0.01581474662242452</v>
       </c>
       <c r="E87">
-        <v>0.09499777716738832</v>
+        <v>-0.00247035115487057</v>
       </c>
       <c r="F87">
-        <v>0.01830484955655924</v>
+        <v>0.1042212254577985</v>
       </c>
       <c r="G87">
-        <v>0.05119385247384403</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>-0.02107135434532981</v>
+      </c>
+      <c r="H87">
+        <v>-0.0216605350051916</v>
+      </c>
+      <c r="I87">
+        <v>0.0209418616593967</v>
+      </c>
+      <c r="J87">
+        <v>-0.008344235010161929</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B88">
-        <v>0.03918890232916592</v>
+        <v>-0.02839376123765979</v>
       </c>
       <c r="C88">
-        <v>-0.02689903413495503</v>
+        <v>-0.009346508438683601</v>
       </c>
       <c r="D88">
-        <v>0.01112251932995704</v>
+        <v>0.02142033789113264</v>
       </c>
       <c r="E88">
-        <v>-0.009872684107739662</v>
+        <v>-0.01734408698266091</v>
       </c>
       <c r="F88">
-        <v>0.01019186413903611</v>
+        <v>-0.00872875406628665</v>
       </c>
       <c r="G88">
-        <v>0.0008882366983789849</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>0.03907265389046913</v>
+      </c>
+      <c r="H88">
+        <v>-0.03626146190176154</v>
+      </c>
+      <c r="I88">
+        <v>0.03325013798883387</v>
+      </c>
+      <c r="J88">
+        <v>-0.03116023087950979</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B89">
-        <v>-0.0183221584593554</v>
+        <v>-0.06124582994448288</v>
       </c>
       <c r="C89">
-        <v>0.4142328105473608</v>
+        <v>0.2916117159132754</v>
       </c>
       <c r="D89">
-        <v>-0.1060742567220661</v>
+        <v>-0.2676050048442463</v>
       </c>
       <c r="E89">
-        <v>-0.01572264209329301</v>
+        <v>0.06405121661977023</v>
       </c>
       <c r="F89">
-        <v>-0.008523607000980737</v>
+        <v>0.02852129188217777</v>
       </c>
       <c r="G89">
-        <v>0.03273219435032799</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>0.05067477867969557</v>
+      </c>
+      <c r="H89">
+        <v>-0.04236753509725623</v>
+      </c>
+      <c r="I89">
+        <v>-0.2725775510205296</v>
+      </c>
+      <c r="J89">
+        <v>-0.01666950656552665</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B90">
-        <v>-0.0146802533661026</v>
+        <v>-0.0407454620369653</v>
       </c>
       <c r="C90">
-        <v>0.3100974541683083</v>
+        <v>0.2589297350551143</v>
       </c>
       <c r="D90">
-        <v>-0.03691424189416555</v>
+        <v>-0.2141643917533849</v>
       </c>
       <c r="E90">
-        <v>0.03600672355664426</v>
+        <v>0.04551880376773693</v>
       </c>
       <c r="F90">
-        <v>-0.009865958175753758</v>
+        <v>0.02829013839171064</v>
       </c>
       <c r="G90">
-        <v>0.04956022561514144</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>0.02783966388983892</v>
+      </c>
+      <c r="H90">
+        <v>-0.007476474880607938</v>
+      </c>
+      <c r="I90">
+        <v>-0.2277350405732851</v>
+      </c>
+      <c r="J90">
+        <v>-0.02961642428082651</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B91">
-        <v>0.297663690967076</v>
+        <v>-0.310877063158926</v>
       </c>
       <c r="C91">
-        <v>-0.01513858383622146</v>
+        <v>-0.03982375768248209</v>
       </c>
       <c r="D91">
-        <v>0.0519824565625405</v>
+        <v>0.007044086479346273</v>
       </c>
       <c r="E91">
-        <v>-0.3030446327999506</v>
+        <v>-0.09765630964551895</v>
       </c>
       <c r="F91">
-        <v>0.1343086262476435</v>
+        <v>-0.2944656020547098</v>
       </c>
       <c r="G91">
-        <v>-0.0876437686616726</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>-0.03559813454488084</v>
+      </c>
+      <c r="H91">
+        <v>0.01688944567880423</v>
+      </c>
+      <c r="I91">
+        <v>-0.1030047640404948</v>
+      </c>
+      <c r="J91">
+        <v>-0.1103309181100816</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B92">
-        <v>-0.005372253150899386</v>
+        <v>-0.09552006582160143</v>
       </c>
       <c r="C92">
-        <v>0.4238403649627908</v>
+        <v>0.3516906532617353</v>
       </c>
       <c r="D92">
-        <v>-0.2254521497928402</v>
+        <v>-0.2630734887426501</v>
       </c>
       <c r="E92">
-        <v>-0.1260024616634101</v>
+        <v>0.0859751786610071</v>
       </c>
       <c r="F92">
-        <v>0.04408754111990081</v>
+        <v>-0.1262749788551631</v>
       </c>
       <c r="G92">
-        <v>-0.1533190274098602</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>0.1278492043599692</v>
+      </c>
+      <c r="H92">
+        <v>-0.4189909795037262</v>
+      </c>
+      <c r="I92">
+        <v>0.7364132937867821</v>
+      </c>
+      <c r="J92">
+        <v>-0.1020195194288614</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B93">
-        <v>-0.02481779457707552</v>
+        <v>-0.04574019778604652</v>
       </c>
       <c r="C93">
-        <v>0.3736494649112813</v>
+        <v>0.3073573047807833</v>
       </c>
       <c r="D93">
-        <v>-0.08446301289412837</v>
+        <v>-0.2732018086628735</v>
       </c>
       <c r="E93">
-        <v>-0.03685276136166857</v>
+        <v>0.08166896699286122</v>
       </c>
       <c r="F93">
-        <v>0.009354796239569462</v>
+        <v>-0.008986973130296236</v>
       </c>
       <c r="G93">
-        <v>-0.04146431904331406</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>0.03558144691424744</v>
+      </c>
+      <c r="H93">
+        <v>0.02219271173906737</v>
+      </c>
+      <c r="I93">
+        <v>-0.1855066587943592</v>
+      </c>
+      <c r="J93">
+        <v>-0.004531015236823193</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B94">
-        <v>0.2835566973244864</v>
+        <v>-0.3098792747937541</v>
       </c>
       <c r="C94">
-        <v>0.05143844771509452</v>
+        <v>-0.01825738950168889</v>
       </c>
       <c r="D94">
-        <v>-0.01806202625053342</v>
+        <v>-0.04229184840705223</v>
       </c>
       <c r="E94">
-        <v>-0.3903814405795709</v>
+        <v>-0.1273239895838417</v>
       </c>
       <c r="F94">
-        <v>0.3818888754525344</v>
+        <v>-0.3526033727107649</v>
       </c>
       <c r="G94">
-        <v>0.1270431332463422</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>-0.1802211257530816</v>
+      </c>
+      <c r="H94">
+        <v>-0.1496371504140465</v>
+      </c>
+      <c r="I94">
+        <v>-0.04473615204424158</v>
+      </c>
+      <c r="J94">
+        <v>0.1934460181279646</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B95">
-        <v>0.1954253365236116</v>
+        <v>-0.128472483571756</v>
       </c>
       <c r="C95">
-        <v>0.02657431858653661</v>
+        <v>-0.09993452967913305</v>
       </c>
       <c r="D95">
-        <v>-0.009149084652478247</v>
+        <v>-0.04699118578646248</v>
       </c>
       <c r="E95">
-        <v>-0.3500146676421118</v>
+        <v>-0.02653434184857721</v>
       </c>
       <c r="F95">
-        <v>-0.8652381014259396</v>
+        <v>-0.04910655143965897</v>
       </c>
       <c r="G95">
-        <v>-0.06010577072562193</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>0.8873824994117386</v>
+      </c>
+      <c r="H95">
+        <v>0.2226000063514906</v>
+      </c>
+      <c r="I95">
+        <v>0.0187486988165056</v>
+      </c>
+      <c r="J95">
+        <v>0.2844930327577689</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3772,19 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3804,51 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B98">
-        <v>0.2181218205025154</v>
+        <v>-0.2041224128888109</v>
       </c>
       <c r="C98">
-        <v>0.1267583489710528</v>
+        <v>0.01871926048101808</v>
       </c>
       <c r="D98">
-        <v>-0.03437506540924595</v>
+        <v>-0.09649050146494237</v>
       </c>
       <c r="E98">
-        <v>0.1017119669839967</v>
+        <v>0.0274765704473165</v>
       </c>
       <c r="F98">
-        <v>-0.03554473315985701</v>
+        <v>0.1612939713579652</v>
       </c>
       <c r="G98">
-        <v>0.0620162870114612</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>-0.1091764715842678</v>
+      </c>
+      <c r="H98">
+        <v>0.3345566803307591</v>
+      </c>
+      <c r="I98">
+        <v>0.1445357235251791</v>
+      </c>
+      <c r="J98">
+        <v>0.07917961582854058</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3868,19 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,79 +3900,115 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B101">
-        <v>0.02020867590688917</v>
+        <v>-0.01487709295264785</v>
       </c>
       <c r="C101">
-        <v>-0.01304527289449945</v>
+        <v>-0.02109200202816896</v>
       </c>
       <c r="D101">
-        <v>0.02638543053504793</v>
+        <v>0.02220966312490914</v>
       </c>
       <c r="E101">
-        <v>0.0260969073400898</v>
+        <v>-0.03096685540977034</v>
       </c>
       <c r="F101">
-        <v>-0.01515894785719223</v>
+        <v>0.06700838961520873</v>
       </c>
       <c r="G101">
-        <v>0.02609110463105638</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>0.02270066710221869</v>
+      </c>
+      <c r="H101">
+        <v>-0.1111447943244368</v>
+      </c>
+      <c r="I101">
+        <v>0.014081349075383</v>
+      </c>
+      <c r="J101">
+        <v>0.1169913254861679</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B102">
-        <v>0.117128476054968</v>
+        <v>-0.1216367456939941</v>
       </c>
       <c r="C102">
-        <v>-0.007567628317617137</v>
+        <v>-0.01744226216518658</v>
       </c>
       <c r="D102">
-        <v>0.03405565763644954</v>
+        <v>0.01363259831367539</v>
       </c>
       <c r="E102">
-        <v>-0.08506990313360971</v>
+        <v>-0.05337819107789837</v>
       </c>
       <c r="F102">
-        <v>0.001380022733916473</v>
+        <v>-0.09169499074193697</v>
       </c>
       <c r="G102">
-        <v>-0.01699312020234427</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>0.02379187220996041</v>
+      </c>
+      <c r="H102">
+        <v>0.02621632032793351</v>
+      </c>
+      <c r="I102">
+        <v>-0.03945467941579595</v>
+      </c>
+      <c r="J102">
+        <v>-0.04554220630072261</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B103">
-        <v>0.01756030498871146</v>
+        <v>-0.03079438941658566</v>
       </c>
       <c r="C103">
-        <v>0.0003158584116909181</v>
+        <v>-0.001607180173910667</v>
       </c>
       <c r="D103">
-        <v>0.01161219206490381</v>
+        <v>0.009679294338796437</v>
       </c>
       <c r="E103">
-        <v>-0.02634480293971345</v>
+        <v>-0.02059109845980725</v>
       </c>
       <c r="F103">
-        <v>0.006855323879952161</v>
+        <v>-0.020535092159798</v>
       </c>
       <c r="G103">
-        <v>0.01828282936856396</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>0.01853443001337296</v>
+      </c>
+      <c r="H103">
+        <v>-0.01347220461366679</v>
+      </c>
+      <c r="I103">
+        <v>-0.02292576624642653</v>
+      </c>
+      <c r="J103">
+        <v>-0.0154436913245807</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4026,15 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
         <v>0</v>
       </c>
     </row>
